--- a/outputs/05 - example - variable_x_group.xlsx
+++ b/outputs/05 - example - variable_x_group.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t xml:space="preserve">analysis_type</t>
   </si>
@@ -27,25 +27,37 @@
     <t xml:space="preserve">stat_NA</t>
   </si>
   <si>
-    <t xml:space="preserve">n_NA</t>
+    <t xml:space="preserve">stat_low_NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stat_upp_NA</t>
   </si>
   <si>
     <t xml:space="preserve">stat_admin1a</t>
   </si>
   <si>
-    <t xml:space="preserve">n_admin1a</t>
+    <t xml:space="preserve">stat_low_admin1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stat_upp_admin1a</t>
   </si>
   <si>
     <t xml:space="preserve">stat_admin1b</t>
   </si>
   <si>
-    <t xml:space="preserve">n_admin1b</t>
+    <t xml:space="preserve">stat_low_admin1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stat_upp_admin1b</t>
   </si>
   <si>
     <t xml:space="preserve">stat_admin1c</t>
   </si>
   <si>
-    <t xml:space="preserve">n_admin1c</t>
+    <t xml:space="preserve">stat_low_admin1c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stat_upp_admin1c</t>
   </si>
   <si>
     <t xml:space="preserve">prop_select_one</t>
@@ -382,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -399,20 +411,28 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -755,1337 +775,1795 @@
       <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="14" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" s="17" t="n">
         <v>0.166666666666667</v>
       </c>
-      <c r="E2" s="17" t="n">
-        <v>31</v>
-      </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="25"/>
+      <c r="E2" s="16" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F2" s="20" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="32"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" s="14" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="E3" s="15" t="n">
-        <v>27</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="23"/>
+      <c r="E3" s="12" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F3" s="18" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="30"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="12" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="E4" s="15" t="n">
-        <v>42</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="23"/>
+      <c r="E4" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="30"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" s="15" t="n">
         <v>20.047277692439</v>
       </c>
-      <c r="E5" s="16" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" s="21" t="n">
+      <c r="E5" s="13" t="n">
+        <v>19.6448024575739</v>
+      </c>
+      <c r="F5" s="19" t="n">
+        <v>20.4497529273041</v>
+      </c>
+      <c r="G5" s="27" t="n">
         <v>19.8709677419355</v>
       </c>
-      <c r="G5" s="24" t="n">
-        <v>31</v>
-      </c>
-      <c r="H5" s="13" t="n">
+      <c r="H5" s="25" t="n">
+        <v>19.3443134339597</v>
+      </c>
+      <c r="I5" s="31" t="n">
+        <v>20.3976220499113</v>
+      </c>
+      <c r="J5" s="15" t="n">
         <v>19.7777777777778</v>
       </c>
-      <c r="I5" s="16" t="n">
-        <v>27</v>
-      </c>
-      <c r="J5" s="21" t="n">
+      <c r="K5" s="13" t="n">
+        <v>19.0489415866426</v>
+      </c>
+      <c r="L5" s="19" t="n">
+        <v>20.506613968913</v>
+      </c>
+      <c r="M5" s="27" t="n">
         <v>20.2857142857143</v>
       </c>
-      <c r="K5" s="24" t="n">
-        <v>42</v>
+      <c r="N5" s="25" t="n">
+        <v>19.6684322689193</v>
+      </c>
+      <c r="O5" s="31" t="n">
+        <v>20.9029963025093</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="E6" s="16" t="n">
-        <v>100</v>
-      </c>
-      <c r="F6" s="21" t="n">
+      <c r="E6" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="G6" s="24" t="n">
-        <v>31</v>
-      </c>
-      <c r="H6" s="13" t="n">
+      <c r="F6" s="19" t="n">
+        <v>21</v>
+      </c>
+      <c r="G6" s="27" t="n">
         <v>20</v>
       </c>
-      <c r="I6" s="16" t="n">
-        <v>27</v>
-      </c>
-      <c r="J6" s="21" t="n">
+      <c r="H6" s="25" t="n">
         <v>20</v>
       </c>
-      <c r="K6" s="24" t="n">
-        <v>42</v>
+      <c r="I6" s="31" t="n">
+        <v>22</v>
+      </c>
+      <c r="J6" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="K6" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="L6" s="19" t="n">
+        <v>22</v>
+      </c>
+      <c r="M6" s="27" t="n">
+        <v>20</v>
+      </c>
+      <c r="N6" s="25" t="n">
+        <v>20</v>
+      </c>
+      <c r="O6" s="31" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" s="15" t="n">
         <v>20.0417875632929</v>
       </c>
-      <c r="E7" s="16" t="n">
-        <v>100</v>
-      </c>
-      <c r="F7" s="21" t="n">
+      <c r="E7" s="13" t="n">
+        <v>19.5778056218661</v>
+      </c>
+      <c r="F7" s="19" t="n">
+        <v>20.5057695047198</v>
+      </c>
+      <c r="G7" s="27" t="n">
         <v>20.1290322580645</v>
       </c>
-      <c r="G7" s="24" t="n">
-        <v>31</v>
-      </c>
-      <c r="H7" s="13" t="n">
+      <c r="H7" s="25" t="n">
+        <v>19.2718206943535</v>
+      </c>
+      <c r="I7" s="31" t="n">
+        <v>20.9862438217756</v>
+      </c>
+      <c r="J7" s="15" t="n">
         <v>19.7037037037037</v>
       </c>
-      <c r="I7" s="16" t="n">
-        <v>27</v>
-      </c>
-      <c r="J7" s="21" t="n">
+      <c r="K7" s="13" t="n">
+        <v>18.7873984267182</v>
+      </c>
+      <c r="L7" s="19" t="n">
+        <v>20.6200089806892</v>
+      </c>
+      <c r="M7" s="27" t="n">
         <v>20.2380952380952</v>
       </c>
-      <c r="K7" s="24" t="n">
-        <v>42</v>
+      <c r="N7" s="25" t="n">
+        <v>19.6006716388876</v>
+      </c>
+      <c r="O7" s="31" t="n">
+        <v>20.8755188373029</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" s="19" t="n">
+        <v>21</v>
+      </c>
+      <c r="G8" s="27" t="n">
+        <v>21</v>
+      </c>
+      <c r="H8" s="25" t="n">
+        <v>21</v>
+      </c>
+      <c r="I8" s="31" t="n">
+        <v>23</v>
+      </c>
+      <c r="J8" s="15" t="n">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="K8" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="L8" s="19" t="n">
+        <v>21</v>
+      </c>
+      <c r="M8" s="27" t="n">
         <v>20</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="13" t="n">
+      <c r="N8" s="25" t="n">
         <v>20</v>
       </c>
-      <c r="E8" s="16" t="n">
-        <v>100</v>
-      </c>
-      <c r="F8" s="21" t="n">
-        <v>21</v>
-      </c>
-      <c r="G8" s="24" t="n">
-        <v>31</v>
-      </c>
-      <c r="H8" s="13" t="n">
-        <v>19</v>
-      </c>
-      <c r="I8" s="16" t="n">
-        <v>27</v>
-      </c>
-      <c r="J8" s="21" t="n">
-        <v>20</v>
-      </c>
-      <c r="K8" s="24" t="n">
-        <v>42</v>
+      <c r="O8" s="31" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="12" t="n">
+        <v>26</v>
+      </c>
+      <c r="D9" s="14" t="n">
         <v>0.041531546907891</v>
       </c>
-      <c r="E9" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F9" s="20" t="n">
+      <c r="E9" s="12" t="n">
+        <v>-0.000936624849291898</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.0839997186650739</v>
+      </c>
+      <c r="G9" s="26" t="n">
         <v>0.032258064516129</v>
       </c>
-      <c r="G9" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="12" t="n">
+      <c r="H9" s="24" t="n">
+        <v>-0.0317652640649672</v>
+      </c>
+      <c r="I9" s="30" t="n">
+        <v>0.0962813930972253</v>
+      </c>
+      <c r="J9" s="14" t="n">
         <v>0.037037037037037</v>
       </c>
-      <c r="I9" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="20" t="n">
+      <c r="K9" s="12" t="n">
+        <v>-0.0364712291116291</v>
+      </c>
+      <c r="L9" s="18" t="n">
+        <v>0.110545303185703</v>
+      </c>
+      <c r="M9" s="26" t="n">
         <v>0.0476190476190476</v>
       </c>
-      <c r="K9" s="23" t="n">
-        <v>2</v>
+      <c r="N9" s="24" t="n">
+        <v>-0.0183900381823089</v>
+      </c>
+      <c r="O9" s="30" t="n">
+        <v>0.113628133420404</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="12" t="n">
+        <v>27</v>
+      </c>
+      <c r="D10" s="14" t="n">
         <v>0.063036923251977</v>
       </c>
-      <c r="E10" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="F10" s="20" t="n">
+      <c r="E10" s="12" t="n">
+        <v>0.0163134665205353</v>
+      </c>
+      <c r="F10" s="18" t="n">
+        <v>0.109760379983419</v>
+      </c>
+      <c r="G10" s="26" t="n">
         <v>0.161290322580645</v>
       </c>
-      <c r="G10" s="23" t="n">
-        <v>5</v>
-      </c>
-      <c r="H10" s="12" t="n">
+      <c r="H10" s="24" t="n">
+        <v>0.0280151363007288</v>
+      </c>
+      <c r="I10" s="30" t="n">
+        <v>0.294565508860562</v>
+      </c>
+      <c r="J10" s="14" t="n">
         <v>0.037037037037037</v>
       </c>
-      <c r="I10" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="20" t="n">
+      <c r="K10" s="12" t="n">
+        <v>-0.0364712291116291</v>
+      </c>
+      <c r="L10" s="18" t="n">
+        <v>0.110545303185703</v>
+      </c>
+      <c r="M10" s="26" t="n">
         <v>0.0476190476190476</v>
       </c>
-      <c r="K10" s="23" t="n">
-        <v>2</v>
+      <c r="N10" s="24" t="n">
+        <v>-0.018390038182309</v>
+      </c>
+      <c r="O10" s="30" t="n">
+        <v>0.113628133420404</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="12" t="n">
+        <v>28</v>
+      </c>
+      <c r="D11" s="14" t="n">
         <v>0.0534363088126529</v>
       </c>
-      <c r="E11" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" s="20" t="n">
+      <c r="E11" s="12" t="n">
+        <v>0.00540145902642122</v>
+      </c>
+      <c r="F11" s="18" t="n">
+        <v>0.101471158598885</v>
+      </c>
+      <c r="G11" s="26" t="n">
         <v>0.032258064516129</v>
       </c>
-      <c r="G11" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="12" t="n">
+      <c r="H11" s="24" t="n">
+        <v>-0.0317652640649673</v>
+      </c>
+      <c r="I11" s="30" t="n">
+        <v>0.0962813930972253</v>
+      </c>
+      <c r="J11" s="14" t="n">
         <v>0.037037037037037</v>
       </c>
-      <c r="I11" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="20" t="n">
+      <c r="K11" s="12" t="n">
+        <v>-0.0364712291116291</v>
+      </c>
+      <c r="L11" s="18" t="n">
+        <v>0.110545303185703</v>
+      </c>
+      <c r="M11" s="26" t="n">
         <v>0.0714285714285714</v>
       </c>
-      <c r="K11" s="23" t="n">
-        <v>3</v>
+      <c r="N11" s="24" t="n">
+        <v>-0.00839876809044213</v>
+      </c>
+      <c r="O11" s="30" t="n">
+        <v>0.151255910947585</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="12" t="n">
+        <v>29</v>
+      </c>
+      <c r="D12" s="14" t="n">
         <v>0.0760937588894578</v>
       </c>
-      <c r="E12" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="F12" s="20" t="n">
+      <c r="E12" s="12" t="n">
+        <v>0.0214232475565447</v>
+      </c>
+      <c r="F12" s="18" t="n">
+        <v>0.130764270222371</v>
+      </c>
+      <c r="G12" s="26" t="n">
         <v>0.0967741935483871</v>
       </c>
-      <c r="G12" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" s="12" t="n">
+      <c r="H12" s="24" t="n">
+        <v>-0.0103573260305326</v>
+      </c>
+      <c r="I12" s="30" t="n">
+        <v>0.203905713127307</v>
+      </c>
+      <c r="J12" s="14" t="n">
         <v>0.037037037037037</v>
       </c>
-      <c r="I12" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="20" t="n">
+      <c r="K12" s="12" t="n">
+        <v>-0.0364712291116291</v>
+      </c>
+      <c r="L12" s="18" t="n">
+        <v>0.110545303185703</v>
+      </c>
+      <c r="M12" s="26" t="n">
         <v>0.0952380952380952</v>
       </c>
-      <c r="K12" s="23" t="n">
-        <v>4</v>
+      <c r="N12" s="24" t="n">
+        <v>0.0042508495614148</v>
+      </c>
+      <c r="O12" s="30" t="n">
+        <v>0.186225340914776</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="14" t="n">
         <v>0.0662229049325823</v>
       </c>
-      <c r="E13" s="15" t="n">
-        <v>6</v>
-      </c>
-      <c r="F13" s="20" t="n">
+      <c r="E13" s="12" t="n">
+        <v>0.0126900620642852</v>
+      </c>
+      <c r="F13" s="18" t="n">
+        <v>0.119755747800879</v>
+      </c>
+      <c r="G13" s="26" t="n">
         <v>0.032258064516129</v>
       </c>
-      <c r="G13" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="12" t="n">
+      <c r="H13" s="24" t="n">
+        <v>-0.0317652640649673</v>
+      </c>
+      <c r="I13" s="30" t="n">
+        <v>0.0962813930972253</v>
+      </c>
+      <c r="J13" s="14" t="n">
         <v>0.111111111111111</v>
       </c>
-      <c r="I13" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" s="20" t="n">
+      <c r="K13" s="12" t="n">
+        <v>-0.0112140378594132</v>
+      </c>
+      <c r="L13" s="18" t="n">
+        <v>0.233436260081635</v>
+      </c>
+      <c r="M13" s="26" t="n">
         <v>0.0476190476190476</v>
       </c>
-      <c r="K13" s="23" t="n">
-        <v>2</v>
+      <c r="N13" s="24" t="n">
+        <v>-0.0183900381823089</v>
+      </c>
+      <c r="O13" s="30" t="n">
+        <v>0.113628133420404</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="D14" s="14" t="n">
         <v>0.0776867497297605</v>
       </c>
-      <c r="E14" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="F14" s="20" t="n">
+      <c r="E14" s="12" t="n">
+        <v>0.0199103095707765</v>
+      </c>
+      <c r="F14" s="18" t="n">
+        <v>0.135463189888744</v>
+      </c>
+      <c r="G14" s="26" t="n">
         <v>0.032258064516129</v>
       </c>
-      <c r="G14" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="12" t="n">
+      <c r="H14" s="24" t="n">
+        <v>-0.0317652640649673</v>
+      </c>
+      <c r="I14" s="30" t="n">
+        <v>0.0962813930972253</v>
+      </c>
+      <c r="J14" s="14" t="n">
         <v>0.0740740740740741</v>
       </c>
-      <c r="I14" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" s="20" t="n">
+      <c r="K14" s="12" t="n">
+        <v>-0.0278635500680295</v>
+      </c>
+      <c r="L14" s="18" t="n">
+        <v>0.176011698216178</v>
+      </c>
+      <c r="M14" s="26" t="n">
         <v>0.0952380952380952</v>
       </c>
-      <c r="K14" s="23" t="n">
-        <v>4</v>
+      <c r="N14" s="24" t="n">
+        <v>0.00425084956141476</v>
+      </c>
+      <c r="O14" s="30" t="n">
+        <v>0.186225340914776</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="12" t="n">
+        <v>32</v>
+      </c>
+      <c r="D15" s="14" t="n">
         <v>0.0657819878249986</v>
       </c>
-      <c r="E15" s="15" t="n">
-        <v>6</v>
-      </c>
-      <c r="F15" s="20" t="n">
+      <c r="E15" s="12" t="n">
+        <v>0.0122885456833821</v>
+      </c>
+      <c r="F15" s="18" t="n">
+        <v>0.119275429966615</v>
+      </c>
+      <c r="G15" s="26" t="n">
         <v>0.032258064516129</v>
       </c>
-      <c r="G15" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="12" t="n">
+      <c r="H15" s="24" t="n">
+        <v>-0.0317652640649672</v>
+      </c>
+      <c r="I15" s="30" t="n">
+        <v>0.0962813930972253</v>
+      </c>
+      <c r="J15" s="14" t="n">
         <v>0.0740740740740741</v>
       </c>
-      <c r="I15" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" s="20" t="n">
+      <c r="K15" s="12" t="n">
+        <v>-0.0278635500680295</v>
+      </c>
+      <c r="L15" s="18" t="n">
+        <v>0.176011698216178</v>
+      </c>
+      <c r="M15" s="26" t="n">
         <v>0.0714285714285714</v>
       </c>
-      <c r="K15" s="23" t="n">
-        <v>3</v>
+      <c r="N15" s="24" t="n">
+        <v>-0.00839876809044213</v>
+      </c>
+      <c r="O15" s="30" t="n">
+        <v>0.151255910947585</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="12" t="n">
+        <v>33</v>
+      </c>
+      <c r="D16" s="14" t="n">
         <v>0.0334101382488479</v>
       </c>
-      <c r="E16" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="F16" s="20" t="n">
+      <c r="E16" s="12" t="n">
+        <v>0.00229479099941662</v>
+      </c>
+      <c r="F16" s="18" t="n">
+        <v>0.0645254854982792</v>
+      </c>
+      <c r="G16" s="26" t="n">
         <v>0.129032258064516</v>
       </c>
-      <c r="G16" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="20" t="n">
+      <c r="H16" s="24" t="n">
+        <v>0.00755653304354387</v>
+      </c>
+      <c r="I16" s="30" t="n">
+        <v>0.250507983085488</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="26" t="n">
         <v>0.0238095238095238</v>
       </c>
-      <c r="K16" s="23" t="n">
-        <v>1</v>
+      <c r="N16" s="24" t="n">
+        <v>-0.0234457901431901</v>
+      </c>
+      <c r="O16" s="30" t="n">
+        <v>0.0710648377622377</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="12" t="n">
+        <v>34</v>
+      </c>
+      <c r="D17" s="14" t="n">
         <v>0.0778574273197929</v>
       </c>
-      <c r="E17" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="F17" s="20" t="n">
+      <c r="E17" s="12" t="n">
+        <v>0.0243887398097256</v>
+      </c>
+      <c r="F17" s="18" t="n">
+        <v>0.13132611482986</v>
+      </c>
+      <c r="G17" s="26" t="n">
         <v>0.0967741935483871</v>
       </c>
-      <c r="G17" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="H17" s="12" t="n">
+      <c r="H17" s="24" t="n">
+        <v>-0.0103573260305325</v>
+      </c>
+      <c r="I17" s="30" t="n">
+        <v>0.203905713127307</v>
+      </c>
+      <c r="J17" s="14" t="n">
         <v>0.185185185185185</v>
       </c>
-      <c r="I17" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="23"/>
+      <c r="K17" s="12" t="n">
+        <v>0.0339872543970261</v>
+      </c>
+      <c r="L17" s="18" t="n">
+        <v>0.336383115973344</v>
+      </c>
+      <c r="M17" s="26"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="30"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="12" t="n">
+        <v>35</v>
+      </c>
+      <c r="D18" s="14" t="n">
         <v>0.0592535700062582</v>
       </c>
-      <c r="E18" s="15" t="n">
-        <v>6</v>
-      </c>
-      <c r="F18" s="20" t="n">
+      <c r="E18" s="12" t="n">
+        <v>0.00961470223511874</v>
+      </c>
+      <c r="F18" s="18" t="n">
+        <v>0.108892437777398</v>
+      </c>
+      <c r="G18" s="26" t="n">
         <v>0.0645161290322581</v>
       </c>
-      <c r="G18" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" s="12" t="n">
+      <c r="H18" s="24" t="n">
+        <v>-0.0245046967991123</v>
+      </c>
+      <c r="I18" s="30" t="n">
+        <v>0.153536954863628</v>
+      </c>
+      <c r="J18" s="14" t="n">
         <v>0.0740740740740741</v>
       </c>
-      <c r="I18" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" s="20" t="n">
+      <c r="K18" s="12" t="n">
+        <v>-0.0278635500680295</v>
+      </c>
+      <c r="L18" s="18" t="n">
+        <v>0.176011698216178</v>
+      </c>
+      <c r="M18" s="26" t="n">
         <v>0.0476190476190476</v>
       </c>
-      <c r="K18" s="23" t="n">
-        <v>2</v>
+      <c r="N18" s="24" t="n">
+        <v>-0.0183900381823089</v>
+      </c>
+      <c r="O18" s="30" t="n">
+        <v>0.113628133420404</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="12" t="n">
+        <v>36</v>
+      </c>
+      <c r="D19" s="14" t="n">
         <v>0.0476190476190476</v>
       </c>
-      <c r="E19" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="20" t="n">
+      <c r="E19" s="12" t="n">
+        <v>0.00212542478070739</v>
+      </c>
+      <c r="F19" s="18" t="n">
+        <v>0.0931126704573878</v>
+      </c>
+      <c r="G19" s="26"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="26" t="n">
         <v>0.0952380952380952</v>
       </c>
-      <c r="K19" s="23" t="n">
-        <v>4</v>
+      <c r="N19" s="24" t="n">
+        <v>0.00425084956141478</v>
+      </c>
+      <c r="O19" s="30" t="n">
+        <v>0.186225340914776</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="12" t="n">
+        <v>37</v>
+      </c>
+      <c r="D20" s="14" t="n">
         <v>0.0291858678955453</v>
       </c>
-      <c r="E20" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="F20" s="20" t="n">
+      <c r="E20" s="12" t="n">
+        <v>-0.00550073745931621</v>
+      </c>
+      <c r="F20" s="18" t="n">
+        <v>0.0638724732504068</v>
+      </c>
+      <c r="G20" s="26" t="n">
         <v>0.032258064516129</v>
       </c>
-      <c r="G20" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="20" t="n">
+      <c r="H20" s="24" t="n">
+        <v>-0.0317652640649673</v>
+      </c>
+      <c r="I20" s="30" t="n">
+        <v>0.0962813930972253</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="26" t="n">
         <v>0.0476190476190476</v>
       </c>
-      <c r="K20" s="23" t="n">
-        <v>2</v>
+      <c r="N20" s="24" t="n">
+        <v>-0.0183900381823089</v>
+      </c>
+      <c r="O20" s="30" t="n">
+        <v>0.113628133420404</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="12" t="n">
+        <v>38</v>
+      </c>
+      <c r="D21" s="14" t="n">
         <v>0.0657819878249986</v>
       </c>
-      <c r="E21" s="15" t="n">
-        <v>6</v>
-      </c>
-      <c r="F21" s="20" t="n">
+      <c r="E21" s="12" t="n">
+        <v>0.0122885456833821</v>
+      </c>
+      <c r="F21" s="18" t="n">
+        <v>0.119275429966615</v>
+      </c>
+      <c r="G21" s="26" t="n">
         <v>0.032258064516129</v>
       </c>
-      <c r="G21" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="12" t="n">
+      <c r="H21" s="24" t="n">
+        <v>-0.0317652640649673</v>
+      </c>
+      <c r="I21" s="30" t="n">
+        <v>0.0962813930972253</v>
+      </c>
+      <c r="J21" s="14" t="n">
         <v>0.0740740740740741</v>
       </c>
-      <c r="I21" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" s="20" t="n">
+      <c r="K21" s="12" t="n">
+        <v>-0.0278635500680295</v>
+      </c>
+      <c r="L21" s="18" t="n">
+        <v>0.176011698216178</v>
+      </c>
+      <c r="M21" s="26" t="n">
         <v>0.0714285714285714</v>
       </c>
-      <c r="K21" s="23" t="n">
-        <v>3</v>
+      <c r="N21" s="24" t="n">
+        <v>-0.00839876809044213</v>
+      </c>
+      <c r="O21" s="30" t="n">
+        <v>0.151255910947585</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="12" t="n">
+        <v>39</v>
+      </c>
+      <c r="D22" s="14" t="n">
         <v>0.0776867497297605</v>
       </c>
-      <c r="E22" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="F22" s="20" t="n">
+      <c r="E22" s="12" t="n">
+        <v>0.0199103095707765</v>
+      </c>
+      <c r="F22" s="18" t="n">
+        <v>0.135463189888744</v>
+      </c>
+      <c r="G22" s="26" t="n">
         <v>0.032258064516129</v>
       </c>
-      <c r="G22" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="12" t="n">
+      <c r="H22" s="24" t="n">
+        <v>-0.0317652640649673</v>
+      </c>
+      <c r="I22" s="30" t="n">
+        <v>0.0962813930972254</v>
+      </c>
+      <c r="J22" s="14" t="n">
         <v>0.0740740740740741</v>
       </c>
-      <c r="I22" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J22" s="20" t="n">
+      <c r="K22" s="12" t="n">
+        <v>-0.0278635500680295</v>
+      </c>
+      <c r="L22" s="18" t="n">
+        <v>0.176011698216178</v>
+      </c>
+      <c r="M22" s="26" t="n">
         <v>0.0952380952380952</v>
       </c>
-      <c r="K22" s="23" t="n">
-        <v>4</v>
+      <c r="N22" s="24" t="n">
+        <v>0.00425084956141478</v>
+      </c>
+      <c r="O22" s="30" t="n">
+        <v>0.186225340914776</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D23" s="14" t="n">
         <v>0.0581014962735393</v>
       </c>
-      <c r="E23" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="F23" s="20" t="n">
+      <c r="E23" s="12" t="n">
+        <v>0.0120281697821842</v>
+      </c>
+      <c r="F23" s="18" t="n">
+        <v>0.104174822764894</v>
+      </c>
+      <c r="G23" s="26" t="n">
         <v>0.129032258064516</v>
       </c>
-      <c r="G23" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="H23" s="12" t="n">
+      <c r="H23" s="24" t="n">
+        <v>0.00755653304354387</v>
+      </c>
+      <c r="I23" s="30" t="n">
+        <v>0.250507983085488</v>
+      </c>
+      <c r="J23" s="14" t="n">
         <v>0.0740740740740741</v>
       </c>
-      <c r="I23" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J23" s="20" t="n">
+      <c r="K23" s="12" t="n">
+        <v>-0.0278635500680295</v>
+      </c>
+      <c r="L23" s="18" t="n">
+        <v>0.176011698216178</v>
+      </c>
+      <c r="M23" s="26" t="n">
         <v>0.0238095238095238</v>
       </c>
-      <c r="K23" s="23" t="n">
-        <v>1</v>
+      <c r="N23" s="24" t="n">
+        <v>-0.0234457901431901</v>
+      </c>
+      <c r="O23" s="30" t="n">
+        <v>0.0710648377622378</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="12" t="n">
+        <v>41</v>
+      </c>
+      <c r="D24" s="14" t="n">
         <v>0.0300677021107129</v>
       </c>
-      <c r="E24" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="F24" s="20" t="n">
+      <c r="E24" s="12" t="n">
+        <v>-0.00554756594229363</v>
+      </c>
+      <c r="F24" s="18" t="n">
+        <v>0.0656829701637194</v>
+      </c>
+      <c r="G24" s="26" t="n">
         <v>0.032258064516129</v>
       </c>
-      <c r="G24" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="12" t="n">
+      <c r="H24" s="24" t="n">
+        <v>-0.0317652640649673</v>
+      </c>
+      <c r="I24" s="30" t="n">
+        <v>0.0962813930972253</v>
+      </c>
+      <c r="J24" s="14" t="n">
         <v>0.0740740740740741</v>
       </c>
-      <c r="I24" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J24" s="20"/>
-      <c r="K24" s="23"/>
+      <c r="K24" s="12" t="n">
+        <v>-0.0278635500680295</v>
+      </c>
+      <c r="L24" s="18" t="n">
+        <v>0.176011698216178</v>
+      </c>
+      <c r="M24" s="26"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="30"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="12" t="n">
+        <v>42</v>
+      </c>
+      <c r="D25" s="14" t="n">
         <v>0.0361552028218695</v>
       </c>
-      <c r="E25" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="12" t="n">
+      <c r="E25" s="12" t="n">
+        <v>-0.00495057382127876</v>
+      </c>
+      <c r="F25" s="18" t="n">
+        <v>0.0772609794650177</v>
+      </c>
+      <c r="G25" s="26"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="14" t="n">
         <v>0.037037037037037</v>
       </c>
-      <c r="I25" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" s="20" t="n">
+      <c r="K25" s="12" t="n">
+        <v>-0.0364712291116291</v>
+      </c>
+      <c r="L25" s="18" t="n">
+        <v>0.110545303185703</v>
+      </c>
+      <c r="M25" s="26" t="n">
         <v>0.0476190476190476</v>
       </c>
-      <c r="K25" s="23" t="n">
-        <v>2</v>
+      <c r="N25" s="24" t="n">
+        <v>-0.0183900381823089</v>
+      </c>
+      <c r="O25" s="30" t="n">
+        <v>0.113628133420404</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="12" t="n">
+        <v>43</v>
+      </c>
+      <c r="D26" s="14" t="n">
         <v>0.0410906298003072</v>
       </c>
-      <c r="E26" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F26" s="20" t="n">
+      <c r="E26" s="12" t="n">
+        <v>-0.00022476409388384</v>
+      </c>
+      <c r="F26" s="18" t="n">
+        <v>0.0824060236944983</v>
+      </c>
+      <c r="G26" s="26" t="n">
         <v>0.032258064516129</v>
       </c>
-      <c r="G26" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="20" t="n">
+      <c r="H26" s="24" t="n">
+        <v>-0.0317652640649673</v>
+      </c>
+      <c r="I26" s="30" t="n">
+        <v>0.0962813930972253</v>
+      </c>
+      <c r="J26" s="14"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="26" t="n">
         <v>0.0714285714285714</v>
       </c>
-      <c r="K26" s="23" t="n">
-        <v>3</v>
+      <c r="N26" s="24" t="n">
+        <v>-0.00839876809044213</v>
+      </c>
+      <c r="O26" s="30" t="n">
+        <v>0.151255910947585</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="12" t="n">
+        <v>46</v>
+      </c>
+      <c r="D27" s="14" t="n">
         <v>0.452793423223531</v>
       </c>
-      <c r="E27" s="15" t="n">
-        <v>43</v>
-      </c>
-      <c r="F27" s="20" t="n">
+      <c r="E27" s="12" t="n">
+        <v>0.348151076326082</v>
+      </c>
+      <c r="F27" s="18" t="n">
+        <v>0.557435770120979</v>
+      </c>
+      <c r="G27" s="26" t="n">
         <v>0.32258064516129</v>
       </c>
-      <c r="G27" s="23" t="n">
-        <v>10</v>
-      </c>
-      <c r="H27" s="12" t="n">
+      <c r="H27" s="24" t="n">
+        <v>0.153190839629136</v>
+      </c>
+      <c r="I27" s="30" t="n">
+        <v>0.491970450693445</v>
+      </c>
+      <c r="J27" s="14" t="n">
         <v>0.518518518518519</v>
       </c>
-      <c r="I27" s="15" t="n">
-        <v>14</v>
-      </c>
-      <c r="J27" s="20" t="n">
+      <c r="K27" s="12" t="n">
+        <v>0.3240339269816</v>
+      </c>
+      <c r="L27" s="18" t="n">
+        <v>0.713003110055437</v>
+      </c>
+      <c r="M27" s="26" t="n">
         <v>0.452380952380952</v>
       </c>
-      <c r="K27" s="23" t="n">
-        <v>19</v>
+      <c r="N27" s="24" t="n">
+        <v>0.298104571272219</v>
+      </c>
+      <c r="O27" s="30" t="n">
+        <v>0.606657333489686</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="12" t="n">
+        <v>47</v>
+      </c>
+      <c r="D28" s="14" t="n">
         <v>0.445880980827217</v>
       </c>
-      <c r="E28" s="15" t="n">
-        <v>49</v>
-      </c>
-      <c r="F28" s="20" t="n">
+      <c r="E28" s="12" t="n">
+        <v>0.345444425830745</v>
+      </c>
+      <c r="F28" s="18" t="n">
+        <v>0.54631753582369</v>
+      </c>
+      <c r="G28" s="26" t="n">
         <v>0.709677419354839</v>
       </c>
-      <c r="G28" s="23" t="n">
-        <v>22</v>
-      </c>
-      <c r="H28" s="12" t="n">
+      <c r="H28" s="24" t="n">
+        <v>0.545198510137943</v>
+      </c>
+      <c r="I28" s="30" t="n">
+        <v>0.874156328571735</v>
+      </c>
+      <c r="J28" s="14" t="n">
         <v>0.518518518518519</v>
       </c>
-      <c r="I28" s="15" t="n">
-        <v>14</v>
-      </c>
-      <c r="J28" s="20" t="n">
+      <c r="K28" s="12" t="n">
+        <v>0.3240339269816</v>
+      </c>
+      <c r="L28" s="18" t="n">
+        <v>0.713003110055437</v>
+      </c>
+      <c r="M28" s="26" t="n">
         <v>0.30952380952381</v>
       </c>
-      <c r="K28" s="23" t="n">
-        <v>13</v>
+      <c r="N28" s="24" t="n">
+        <v>0.166229349715486</v>
+      </c>
+      <c r="O28" s="30" t="n">
+        <v>0.452818269332133</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="12" t="n">
+        <v>48</v>
+      </c>
+      <c r="D29" s="14" t="n">
         <v>0.506386186493713</v>
       </c>
-      <c r="E29" s="15" t="n">
-        <v>52</v>
-      </c>
-      <c r="F29" s="20" t="n">
+      <c r="E29" s="12" t="n">
+        <v>0.401970866900122</v>
+      </c>
+      <c r="F29" s="18" t="n">
+        <v>0.610801506087304</v>
+      </c>
+      <c r="G29" s="26" t="n">
         <v>0.580645161290323</v>
       </c>
-      <c r="G29" s="23" t="n">
-        <v>18</v>
-      </c>
-      <c r="H29" s="12" t="n">
+      <c r="H29" s="24" t="n">
+        <v>0.401837735548819</v>
+      </c>
+      <c r="I29" s="30" t="n">
+        <v>0.759452587031827</v>
+      </c>
+      <c r="J29" s="14" t="n">
         <v>0.407407407407407</v>
       </c>
-      <c r="I29" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="J29" s="20" t="n">
+      <c r="K29" s="12" t="n">
+        <v>0.216155471889375</v>
+      </c>
+      <c r="L29" s="18" t="n">
+        <v>0.59865934292544</v>
+      </c>
+      <c r="M29" s="26" t="n">
         <v>0.547619047619048</v>
       </c>
-      <c r="K29" s="23" t="n">
-        <v>23</v>
+      <c r="N29" s="24" t="n">
+        <v>0.393342666510314</v>
+      </c>
+      <c r="O29" s="30" t="n">
+        <v>0.701895428727781</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="12" t="n">
+        <v>49</v>
+      </c>
+      <c r="D30" s="14" t="n">
         <v>0.57552483358935</v>
       </c>
-      <c r="E30" s="15" t="n">
-        <v>57</v>
-      </c>
-      <c r="F30" s="20" t="n">
+      <c r="E30" s="12" t="n">
+        <v>0.472397218956416</v>
+      </c>
+      <c r="F30" s="18" t="n">
+        <v>0.678652448222284</v>
+      </c>
+      <c r="G30" s="26" t="n">
         <v>0.548387096774194</v>
       </c>
-      <c r="G30" s="23" t="n">
-        <v>17</v>
-      </c>
-      <c r="H30" s="12" t="n">
+      <c r="H30" s="24" t="n">
+        <v>0.368057878267271</v>
+      </c>
+      <c r="I30" s="30" t="n">
+        <v>0.728716315281116</v>
+      </c>
+      <c r="J30" s="14" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="I30" s="15" t="n">
-        <v>18</v>
-      </c>
-      <c r="J30" s="20" t="n">
+      <c r="K30" s="12" t="n">
+        <v>0.48317894321088</v>
+      </c>
+      <c r="L30" s="18" t="n">
+        <v>0.850154390122453</v>
+      </c>
+      <c r="M30" s="26" t="n">
         <v>0.523809523809524</v>
       </c>
-      <c r="K30" s="23" t="n">
-        <v>22</v>
+      <c r="N30" s="24" t="n">
+        <v>0.369004495642414</v>
+      </c>
+      <c r="O30" s="30" t="n">
+        <v>0.678614551976633</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D31" s="14" t="n">
         <v>0.479845821243671</v>
       </c>
-      <c r="E31" s="15" t="n">
-        <v>49</v>
-      </c>
-      <c r="F31" s="20" t="n">
+      <c r="E31" s="12" t="n">
+        <v>0.378142969428606</v>
+      </c>
+      <c r="F31" s="18" t="n">
+        <v>0.581548673058735</v>
+      </c>
+      <c r="G31" s="26" t="n">
         <v>0.548387096774194</v>
       </c>
-      <c r="G31" s="23" t="n">
-        <v>17</v>
-      </c>
-      <c r="H31" s="12" t="n">
+      <c r="H31" s="24" t="n">
+        <v>0.368057878267271</v>
+      </c>
+      <c r="I31" s="30" t="n">
+        <v>0.728716315281116</v>
+      </c>
+      <c r="J31" s="14" t="n">
         <v>0.62962962962963</v>
       </c>
-      <c r="I31" s="15" t="n">
-        <v>17</v>
-      </c>
-      <c r="J31" s="20" t="n">
+      <c r="K31" s="12" t="n">
+        <v>0.441665938099842</v>
+      </c>
+      <c r="L31" s="18" t="n">
+        <v>0.817593321159417</v>
+      </c>
+      <c r="M31" s="26" t="n">
         <v>0.357142857142857</v>
       </c>
-      <c r="K31" s="23" t="n">
-        <v>15</v>
+      <c r="N31" s="24" t="n">
+        <v>0.208622414089805</v>
+      </c>
+      <c r="O31" s="30" t="n">
+        <v>0.505663300195909</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="12" t="n">
+        <v>51</v>
+      </c>
+      <c r="D32" s="14" t="n">
         <v>0.598623200773738</v>
       </c>
-      <c r="E32" s="15" t="n">
-        <v>60</v>
-      </c>
-      <c r="F32" s="20" t="n">
+      <c r="E32" s="12" t="n">
+        <v>0.496807514338298</v>
+      </c>
+      <c r="F32" s="18" t="n">
+        <v>0.700438887209179</v>
+      </c>
+      <c r="G32" s="26" t="n">
         <v>0.612903225806452</v>
       </c>
-      <c r="G32" s="23" t="n">
-        <v>19</v>
-      </c>
-      <c r="H32" s="12" t="n">
+      <c r="H32" s="24" t="n">
+        <v>0.436403089319867</v>
+      </c>
+      <c r="I32" s="30" t="n">
+        <v>0.789403362293036</v>
+      </c>
+      <c r="J32" s="14" t="n">
         <v>0.703703703703704</v>
       </c>
-      <c r="I32" s="15" t="n">
-        <v>19</v>
-      </c>
-      <c r="J32" s="20" t="n">
+      <c r="K32" s="12" t="n">
+        <v>0.525969382831679</v>
+      </c>
+      <c r="L32" s="18" t="n">
+        <v>0.881438024575729</v>
+      </c>
+      <c r="M32" s="26" t="n">
         <v>0.523809523809524</v>
       </c>
-      <c r="K32" s="23" t="n">
-        <v>22</v>
+      <c r="N32" s="24" t="n">
+        <v>0.369004495642414</v>
+      </c>
+      <c r="O32" s="30" t="n">
+        <v>0.678614551976633</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="12" t="n">
+        <v>52</v>
+      </c>
+      <c r="D33" s="14" t="n">
         <v>0.587429595494112</v>
       </c>
-      <c r="E33" s="15" t="n">
-        <v>58</v>
-      </c>
-      <c r="F33" s="20" t="n">
+      <c r="E33" s="12" t="n">
+        <v>0.484500220894701</v>
+      </c>
+      <c r="F33" s="18" t="n">
+        <v>0.690358970093523</v>
+      </c>
+      <c r="G33" s="26" t="n">
         <v>0.548387096774194</v>
       </c>
-      <c r="G33" s="23" t="n">
-        <v>17</v>
-      </c>
-      <c r="H33" s="12" t="n">
+      <c r="H33" s="24" t="n">
+        <v>0.368057878267271</v>
+      </c>
+      <c r="I33" s="30" t="n">
+        <v>0.728716315281116</v>
+      </c>
+      <c r="J33" s="14" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="I33" s="15" t="n">
-        <v>18</v>
-      </c>
-      <c r="J33" s="20" t="n">
+      <c r="K33" s="12" t="n">
+        <v>0.48317894321088</v>
+      </c>
+      <c r="L33" s="18" t="n">
+        <v>0.850154390122453</v>
+      </c>
+      <c r="M33" s="26" t="n">
         <v>0.547619047619048</v>
       </c>
-      <c r="K33" s="23" t="n">
-        <v>23</v>
+      <c r="N33" s="24" t="n">
+        <v>0.393342666510314</v>
+      </c>
+      <c r="O33" s="30" t="n">
+        <v>0.701895428727781</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="12" t="n">
+        <v>53</v>
+      </c>
+      <c r="D34" s="14" t="n">
         <v>0.522956135859362</v>
       </c>
-      <c r="E34" s="15" t="n">
-        <v>55</v>
-      </c>
-      <c r="F34" s="20" t="n">
+      <c r="E34" s="12" t="n">
+        <v>0.418339282315212</v>
+      </c>
+      <c r="F34" s="18" t="n">
+        <v>0.627572989403511</v>
+      </c>
+      <c r="G34" s="26" t="n">
         <v>0.67741935483871</v>
       </c>
-      <c r="G34" s="23" t="n">
-        <v>21</v>
-      </c>
-      <c r="H34" s="12" t="n">
+      <c r="H34" s="24" t="n">
+        <v>0.508029549306555</v>
+      </c>
+      <c r="I34" s="30" t="n">
+        <v>0.846809160370864</v>
+      </c>
+      <c r="J34" s="14" t="n">
         <v>0.444444444444445</v>
       </c>
-      <c r="I34" s="15" t="n">
-        <v>12</v>
-      </c>
-      <c r="J34" s="20" t="n">
+      <c r="K34" s="12" t="n">
+        <v>0.251031401511315</v>
+      </c>
+      <c r="L34" s="18" t="n">
+        <v>0.637857487377574</v>
+      </c>
+      <c r="M34" s="26" t="n">
         <v>0.523809523809524</v>
       </c>
-      <c r="K34" s="23" t="n">
-        <v>22</v>
+      <c r="N34" s="24" t="n">
+        <v>0.369004495642414</v>
+      </c>
+      <c r="O34" s="30" t="n">
+        <v>0.678614551976633</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="12" t="n">
+        <v>54</v>
+      </c>
+      <c r="D35" s="14" t="n">
         <v>0.417676509074358</v>
       </c>
-      <c r="E35" s="15" t="n">
-        <v>44</v>
-      </c>
-      <c r="F35" s="20" t="n">
+      <c r="E35" s="12" t="n">
+        <v>0.314565892809487</v>
+      </c>
+      <c r="F35" s="18" t="n">
+        <v>0.52078712533923</v>
+      </c>
+      <c r="G35" s="26" t="n">
         <v>0.548387096774194</v>
       </c>
-      <c r="G35" s="23" t="n">
-        <v>17</v>
-      </c>
-      <c r="H35" s="12" t="n">
+      <c r="H35" s="24" t="n">
+        <v>0.368057878267271</v>
+      </c>
+      <c r="I35" s="30" t="n">
+        <v>0.728716315281116</v>
+      </c>
+      <c r="J35" s="14" t="n">
         <v>0.407407407407407</v>
       </c>
-      <c r="I35" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="J35" s="20" t="n">
+      <c r="K35" s="12" t="n">
+        <v>0.216155471889375</v>
+      </c>
+      <c r="L35" s="18" t="n">
+        <v>0.59865934292544</v>
+      </c>
+      <c r="M35" s="26" t="n">
         <v>0.380952380952381</v>
       </c>
-      <c r="K35" s="23" t="n">
-        <v>16</v>
+      <c r="N35" s="24" t="n">
+        <v>0.230428506024447</v>
+      </c>
+      <c r="O35" s="30" t="n">
+        <v>0.531476255880315</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="12" t="n">
+        <v>55</v>
+      </c>
+      <c r="D36" s="14" t="n">
         <v>0.543096091483188</v>
       </c>
-      <c r="E36" s="15" t="n">
-        <v>50</v>
-      </c>
-      <c r="F36" s="20" t="n">
+      <c r="E36" s="12" t="n">
+        <v>0.440274149300264</v>
+      </c>
+      <c r="F36" s="18" t="n">
+        <v>0.645918033666113</v>
+      </c>
+      <c r="G36" s="26" t="n">
         <v>0.290322580645161</v>
       </c>
-      <c r="G36" s="23" t="n">
-        <v>9</v>
-      </c>
-      <c r="H36" s="12" t="n">
+      <c r="H36" s="24" t="n">
+        <v>0.125843671428265</v>
+      </c>
+      <c r="I36" s="30" t="n">
+        <v>0.454801489862057</v>
+      </c>
+      <c r="J36" s="14" t="n">
         <v>0.555555555555556</v>
       </c>
-      <c r="I36" s="15" t="n">
-        <v>15</v>
-      </c>
-      <c r="J36" s="20" t="n">
+      <c r="K36" s="12" t="n">
+        <v>0.362142512622427</v>
+      </c>
+      <c r="L36" s="18" t="n">
+        <v>0.748968598488685</v>
+      </c>
+      <c r="M36" s="26" t="n">
         <v>0.619047619047619</v>
       </c>
-      <c r="K36" s="23" t="n">
-        <v>26</v>
+      <c r="N36" s="24" t="n">
+        <v>0.468523744119685</v>
+      </c>
+      <c r="O36" s="30" t="n">
+        <v>0.769571493975553</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="12" t="n">
+        <v>56</v>
+      </c>
+      <c r="D37" s="14" t="n">
         <v>0.46963361210673</v>
       </c>
-      <c r="E37" s="15" t="n">
-        <v>45</v>
-      </c>
-      <c r="F37" s="20" t="n">
+      <c r="E37" s="12" t="n">
+        <v>0.364550600461347</v>
+      </c>
+      <c r="F37" s="18" t="n">
+        <v>0.574716623752114</v>
+      </c>
+      <c r="G37" s="26" t="n">
         <v>0.354838709677419</v>
       </c>
-      <c r="G37" s="23" t="n">
-        <v>11</v>
-      </c>
-      <c r="H37" s="12" t="n">
+      <c r="H37" s="24" t="n">
+        <v>0.181462716282268</v>
+      </c>
+      <c r="I37" s="30" t="n">
+        <v>0.528214703072571</v>
+      </c>
+      <c r="J37" s="14" t="n">
         <v>0.481481481481482</v>
       </c>
-      <c r="I37" s="15" t="n">
-        <v>13</v>
-      </c>
-      <c r="J37" s="20" t="n">
+      <c r="K37" s="12" t="n">
+        <v>0.286996889944563</v>
+      </c>
+      <c r="L37" s="18" t="n">
+        <v>0.6759660730184</v>
+      </c>
+      <c r="M37" s="26" t="n">
         <v>0.5</v>
       </c>
-      <c r="K37" s="23" t="n">
-        <v>21</v>
+      <c r="N37" s="24" t="n">
+        <v>0.345019156866328</v>
+      </c>
+      <c r="O37" s="30" t="n">
+        <v>0.654980843133672</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="12" t="n">
+        <v>57</v>
+      </c>
+      <c r="D38" s="14" t="n">
         <v>0.549951641349491</v>
       </c>
-      <c r="E38" s="15" t="n">
-        <v>55</v>
-      </c>
-      <c r="F38" s="20" t="n">
+      <c r="E38" s="12" t="n">
+        <v>0.445126980384233</v>
+      </c>
+      <c r="F38" s="18" t="n">
+        <v>0.654776302314748</v>
+      </c>
+      <c r="G38" s="26" t="n">
         <v>0.548387096774194</v>
       </c>
-      <c r="G38" s="23" t="n">
-        <v>17</v>
-      </c>
-      <c r="H38" s="12" t="n">
+      <c r="H38" s="24" t="n">
+        <v>0.368057878267271</v>
+      </c>
+      <c r="I38" s="30" t="n">
+        <v>0.728716315281116</v>
+      </c>
+      <c r="J38" s="14" t="n">
         <v>0.518518518518519</v>
       </c>
-      <c r="I38" s="15" t="n">
-        <v>14</v>
-      </c>
-      <c r="J38" s="20" t="n">
+      <c r="K38" s="12" t="n">
+        <v>0.3240339269816</v>
+      </c>
+      <c r="L38" s="18" t="n">
+        <v>0.713003110055437</v>
+      </c>
+      <c r="M38" s="26" t="n">
         <v>0.571428571428571</v>
       </c>
-      <c r="K38" s="23" t="n">
-        <v>24</v>
+      <c r="N38" s="24" t="n">
+        <v>0.418037317424353</v>
+      </c>
+      <c r="O38" s="30" t="n">
+        <v>0.72481982543279</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="D39" s="14" t="n">
         <v>0.354909825339933</v>
       </c>
-      <c r="E39" s="15" t="n">
-        <v>35</v>
-      </c>
-      <c r="F39" s="20" t="n">
+      <c r="E39" s="12" t="n">
+        <v>0.254441552543603</v>
+      </c>
+      <c r="F39" s="18" t="n">
+        <v>0.455378098136263</v>
+      </c>
+      <c r="G39" s="26" t="n">
         <v>0.32258064516129</v>
       </c>
-      <c r="G39" s="23" t="n">
-        <v>10</v>
-      </c>
-      <c r="H39" s="12" t="n">
+      <c r="H39" s="24" t="n">
+        <v>0.153190839629136</v>
+      </c>
+      <c r="I39" s="30" t="n">
+        <v>0.491970450693445</v>
+      </c>
+      <c r="J39" s="14" t="n">
         <v>0.296296296296296</v>
       </c>
-      <c r="I39" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="J39" s="20" t="n">
+      <c r="K39" s="12" t="n">
+        <v>0.118561975424272</v>
+      </c>
+      <c r="L39" s="18" t="n">
+        <v>0.474030617168321</v>
+      </c>
+      <c r="M39" s="26" t="n">
         <v>0.404761904761905</v>
       </c>
-      <c r="K39" s="23" t="n">
-        <v>17</v>
+      <c r="N39" s="24" t="n">
+        <v>0.252618479479188</v>
+      </c>
+      <c r="O39" s="30" t="n">
+        <v>0.556905330044622</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="12" t="n">
+        <v>29</v>
+      </c>
+      <c r="D40" s="14" t="n">
         <v>0.551274392672242</v>
       </c>
-      <c r="E40" s="15" t="n">
-        <v>55</v>
-      </c>
-      <c r="F40" s="20" t="n">
+      <c r="E40" s="12" t="n">
+        <v>0.447189547470098</v>
+      </c>
+      <c r="F40" s="18" t="n">
+        <v>0.655359237874386</v>
+      </c>
+      <c r="G40" s="26" t="n">
         <v>0.548387096774194</v>
       </c>
-      <c r="G40" s="23" t="n">
-        <v>17</v>
-      </c>
-      <c r="H40" s="12" t="n">
+      <c r="H40" s="24" t="n">
+        <v>0.368057878267271</v>
+      </c>
+      <c r="I40" s="30" t="n">
+        <v>0.728716315281116</v>
+      </c>
+      <c r="J40" s="14" t="n">
         <v>0.62962962962963</v>
       </c>
-      <c r="I40" s="15" t="n">
-        <v>17</v>
-      </c>
-      <c r="J40" s="20" t="n">
+      <c r="K40" s="12" t="n">
+        <v>0.441665938099842</v>
+      </c>
+      <c r="L40" s="18" t="n">
+        <v>0.817593321159417</v>
+      </c>
+      <c r="M40" s="26" t="n">
         <v>0.5</v>
       </c>
-      <c r="K40" s="23" t="n">
-        <v>21</v>
+      <c r="N40" s="24" t="n">
+        <v>0.345019156866328</v>
+      </c>
+      <c r="O40" s="30" t="n">
+        <v>0.654980843133672</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="18" t="n">
+        <v>58</v>
+      </c>
+      <c r="D41" s="22" t="n">
         <v>0.478523069920919</v>
       </c>
-      <c r="E41" s="19" t="n">
-        <v>49</v>
-      </c>
-      <c r="F41" s="26" t="n">
+      <c r="E41" s="21" t="n">
+        <v>0.373698408955662</v>
+      </c>
+      <c r="F41" s="23" t="n">
+        <v>0.583347730886177</v>
+      </c>
+      <c r="G41" s="34" t="n">
         <v>0.548387096774194</v>
       </c>
-      <c r="G41" s="27" t="n">
-        <v>17</v>
-      </c>
-      <c r="H41" s="18" t="n">
+      <c r="H41" s="33" t="n">
+        <v>0.368057878267271</v>
+      </c>
+      <c r="I41" s="35" t="n">
+        <v>0.728716315281116</v>
+      </c>
+      <c r="J41" s="22" t="n">
         <v>0.518518518518519</v>
       </c>
-      <c r="I41" s="19" t="n">
-        <v>14</v>
-      </c>
-      <c r="J41" s="26" t="n">
+      <c r="K41" s="21" t="n">
+        <v>0.3240339269816</v>
+      </c>
+      <c r="L41" s="23" t="n">
+        <v>0.713003110055437</v>
+      </c>
+      <c r="M41" s="34" t="n">
         <v>0.428571428571429</v>
       </c>
-      <c r="K41" s="27" t="n">
-        <v>18</v>
+      <c r="N41" s="33" t="n">
+        <v>0.27518017456721</v>
+      </c>
+      <c r="O41" s="35" t="n">
+        <v>0.581962682575647</v>
       </c>
     </row>
   </sheetData>
@@ -2340,26 +2818,10 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Document xmlns="0abf2ae5-e878-4ccc-836e-24fe06428412" xsi:nil="true"/>
-    <TaxCatchAll xmlns="a6c4a5f2-8fa1-4399-adba-98b13265f581" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0abf2ae5-e878-4ccc-836e-24fe06428412">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94B48D34-F7A5-411B-9D85-55F8CF894769}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CA22908-E036-4620-9324-0D664138E3C2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41B9E97C-7A1E-4B97-A44D-CEA3187BDA91}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00629F93-9939-412F-9C90-41A15627E054}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F82002F6-9041-4D74-9DC2-721ED2256199}"/>
 </file>
--- a/outputs/05 - example - variable_x_group.xlsx
+++ b/outputs/05 - example - variable_x_group.xlsx
@@ -2819,9 +2819,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CA22908-E036-4620-9324-0D664138E3C2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5150C4A-B9E7-4968-86AD-AFC9787DBFA3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F82002F6-9041-4D74-9DC2-721ED2256199}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD22DF70-11FB-4EE9-B589-053B59C30024}"/>
 </file>
--- a/outputs/05 - example - variable_x_group.xlsx
+++ b/outputs/05 - example - variable_x_group.xlsx
@@ -2819,9 +2819,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5150C4A-B9E7-4968-86AD-AFC9787DBFA3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{621CE357-1603-473B-BC5C-E42A3ADE1D6D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD22DF70-11FB-4EE9-B589-053B59C30024}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D6EA574-9A7A-446C-80B0-B6F18A984D65}"/>
 </file>
--- a/outputs/05 - example - variable_x_group.xlsx
+++ b/outputs/05 - example - variable_x_group.xlsx
@@ -2570,258 +2570,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080E85EC637DE394385C88CEC49596DF4" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a7a6b82d92ee006f32cc98cd362f5798">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0abf2ae5-e878-4ccc-836e-24fe06428412" xmlns:ns3="a6c4a5f2-8fa1-4399-adba-98b13265f581" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e32ee5a72c086ee0cafc7aca6045ee5e" ns2:_="" ns3:_="">
-    <xsd:import namespace="0abf2ae5-e878-4ccc-836e-24fe06428412"/>
-    <xsd:import namespace="a6c4a5f2-8fa1-4399-adba-98b13265f581"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:Document" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0abf2ae5-e878-4ccc-836e-24fe06428412" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="4d06f0b5-5743-41f2-90d3-b12c8ffc7f36" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Document" ma:index="17" nillable="true" ma:displayName="Document" ma:format="Dropdown" ma:internalName="Document">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a6c4a5f2-8fa1-4399-adba-98b13265f581" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="12" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{108afb86-e938-42cd-bd2a-daca4fe26efb}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a6c4a5f2-8fa1-4399-adba-98b13265f581">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{621CE357-1603-473B-BC5C-E42A3ADE1D6D}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D6EA574-9A7A-446C-80B0-B6F18A984D65}"/>
 </file>